--- a/data/unchecked/manual_collect/japan/JapanCaseStatistics20200214.xlsx
+++ b/data/unchecked/manual_collect/japan/JapanCaseStatistics20200214.xlsx
@@ -377,7 +377,7 @@
     <definedName name="自贡市">中国各省市区县数据!$C$2043:$C$2048</definedName>
     <definedName name="遵义市">中国各省市区县数据!$C$2220:$C$2233</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -10729,7 +10729,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10739,8 +10739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -10927,7 +10927,7 @@
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="M2" s="12">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="N2" s="12"/>
       <c r="O2" s="12">
